--- a/target/test-classes/import/财务报表导入模版 (一般企业版)测试.xlsx
+++ b/target/test-classes/import/财务报表导入模版 (一般企业版)测试.xlsx
@@ -4521,8 +4521,8 @@
   <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -5599,7 +5599,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="$A5:$XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" outlineLevelCol="4"/>
@@ -6076,8 +6076,8 @@
   <sheetPr/>
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" outlineLevelCol="2"/>
